--- a/SchedulingData/dynamic15/pso/scheduling1_18.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling1_18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>54.3</v>
+        <v>80.7</v>
       </c>
       <c r="E2" t="n">
-        <v>26.76</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="3">
@@ -485,250 +485,250 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>54.3</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>110.92</v>
+        <v>74.56</v>
       </c>
       <c r="E3" t="n">
-        <v>22.728</v>
+        <v>26.724</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>86.40000000000001</v>
+        <v>53.64</v>
       </c>
       <c r="E4" t="n">
-        <v>25.02</v>
+        <v>27.296</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>80.59999999999999</v>
+        <v>48.2</v>
       </c>
       <c r="E5" t="n">
-        <v>26.08</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>110.92</v>
+        <v>48.2</v>
       </c>
       <c r="D6" t="n">
-        <v>153.02</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>20.648</v>
+        <v>23.64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>65.8</v>
+        <v>78.08</v>
       </c>
       <c r="E7" t="n">
-        <v>26.62</v>
+        <v>26.352</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>80.59999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>147.04</v>
+        <v>147</v>
       </c>
       <c r="E8" t="n">
-        <v>22.076</v>
+        <v>20.26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>86.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>142.52</v>
+        <v>49.28</v>
       </c>
       <c r="E9" t="n">
-        <v>22.028</v>
+        <v>26.752</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>142.52</v>
+        <v>74.56</v>
       </c>
       <c r="D10" t="n">
-        <v>213.74</v>
+        <v>121.28</v>
       </c>
       <c r="E10" t="n">
-        <v>17.996</v>
+        <v>22.692</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>121.28</v>
       </c>
       <c r="D11" t="n">
-        <v>79.52</v>
+        <v>203.18</v>
       </c>
       <c r="E11" t="n">
-        <v>26.208</v>
+        <v>18.132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>78.08</v>
       </c>
       <c r="D12" t="n">
-        <v>63.2</v>
+        <v>146.84</v>
       </c>
       <c r="E12" t="n">
-        <v>26.36</v>
+        <v>23.096</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>147.04</v>
+        <v>147</v>
       </c>
       <c r="D13" t="n">
-        <v>210.92</v>
+        <v>228.78</v>
       </c>
       <c r="E13" t="n">
-        <v>19.268</v>
+        <v>16.672</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>63.2</v>
+        <v>53.64</v>
       </c>
       <c r="D14" t="n">
-        <v>127.38</v>
+        <v>99.76000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>22.552</v>
+        <v>24.304</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>65.8</v>
+        <v>146.84</v>
       </c>
       <c r="D15" t="n">
-        <v>106.32</v>
+        <v>218.06</v>
       </c>
       <c r="E15" t="n">
-        <v>23.708</v>
+        <v>19.064</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -736,184 +736,184 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>210.92</v>
+        <v>49.28</v>
       </c>
       <c r="D16" t="n">
-        <v>268.56</v>
+        <v>96.72</v>
       </c>
       <c r="E16" t="n">
-        <v>16.144</v>
+        <v>23.628</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>268.56</v>
+        <v>203.18</v>
       </c>
       <c r="D17" t="n">
-        <v>328.56</v>
+        <v>281.54</v>
       </c>
       <c r="E17" t="n">
-        <v>13.284</v>
+        <v>15.396</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>153.02</v>
+        <v>228.78</v>
       </c>
       <c r="D18" t="n">
-        <v>200.3</v>
+        <v>278.96</v>
       </c>
       <c r="E18" t="n">
-        <v>17.06</v>
+        <v>13.284</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>328.56</v>
+        <v>99.76000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>410.46</v>
+        <v>148.52</v>
       </c>
       <c r="E19" t="n">
-        <v>8.724</v>
+        <v>21.048</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>410.46</v>
+        <v>278.96</v>
       </c>
       <c r="D20" t="n">
-        <v>447.06</v>
+        <v>333.34</v>
       </c>
       <c r="E20" t="n">
-        <v>6.204</v>
+        <v>9.476000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>127.38</v>
+        <v>218.06</v>
       </c>
       <c r="D21" t="n">
-        <v>184.66</v>
+        <v>311.02</v>
       </c>
       <c r="E21" t="n">
-        <v>18.964</v>
+        <v>15.368</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>200.3</v>
+        <v>96.72</v>
       </c>
       <c r="D22" t="n">
-        <v>242.46</v>
+        <v>160.64</v>
       </c>
       <c r="E22" t="n">
-        <v>14.464</v>
+        <v>19.836</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>184.66</v>
+        <v>148.52</v>
       </c>
       <c r="D23" t="n">
-        <v>274.76</v>
+        <v>209.76</v>
       </c>
       <c r="E23" t="n">
-        <v>14.044</v>
+        <v>17.044</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>242.46</v>
+        <v>311.02</v>
       </c>
       <c r="D24" t="n">
-        <v>295.66</v>
+        <v>361.3</v>
       </c>
       <c r="E24" t="n">
-        <v>9.784000000000001</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>295.66</v>
+        <v>361.3</v>
       </c>
       <c r="D25" t="n">
-        <v>366.06</v>
+        <v>408.66</v>
       </c>
       <c r="E25" t="n">
-        <v>4.864</v>
+        <v>9.364000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -922,131 +922,131 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>79.52</v>
+        <v>209.76</v>
       </c>
       <c r="D26" t="n">
-        <v>133.56</v>
+        <v>275.36</v>
       </c>
       <c r="E26" t="n">
-        <v>22.944</v>
+        <v>13.124</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>213.74</v>
+        <v>333.34</v>
       </c>
       <c r="D27" t="n">
-        <v>291.32</v>
+        <v>377.68</v>
       </c>
       <c r="E27" t="n">
-        <v>14.348</v>
+        <v>6.172</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>291.32</v>
+        <v>80.7</v>
       </c>
       <c r="D28" t="n">
-        <v>346.9</v>
+        <v>151.42</v>
       </c>
       <c r="E28" t="n">
-        <v>11.4</v>
+        <v>21.128</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>366.06</v>
+        <v>151.42</v>
       </c>
       <c r="D29" t="n">
-        <v>419.52</v>
+        <v>221.18</v>
       </c>
       <c r="E29" t="n">
-        <v>2.128</v>
+        <v>18.272</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>133.56</v>
+        <v>377.68</v>
       </c>
       <c r="D30" t="n">
-        <v>179.72</v>
+        <v>433.78</v>
       </c>
       <c r="E30" t="n">
-        <v>18.968</v>
+        <v>3.652</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>106.32</v>
+        <v>160.64</v>
       </c>
       <c r="D31" t="n">
-        <v>176</v>
+        <v>235.84</v>
       </c>
       <c r="E31" t="n">
-        <v>20.32</v>
+        <v>14.916</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>176</v>
+        <v>275.36</v>
       </c>
       <c r="D32" t="n">
-        <v>229.96</v>
+        <v>325.46</v>
       </c>
       <c r="E32" t="n">
-        <v>17.064</v>
+        <v>9.744</v>
       </c>
     </row>
     <row r="33">
@@ -1055,17 +1055,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>229.96</v>
+        <v>433.78</v>
       </c>
       <c r="D33" t="n">
-        <v>278.72</v>
+        <v>498.38</v>
       </c>
       <c r="E33" t="n">
-        <v>13.808</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
@@ -1074,36 +1074,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>278.72</v>
+        <v>498.38</v>
       </c>
       <c r="D34" t="n">
-        <v>360.34</v>
+        <v>574.78</v>
       </c>
       <c r="E34" t="n">
-        <v>10.256</v>
+        <v>25.02</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>179.72</v>
+        <v>574.78</v>
       </c>
       <c r="D35" t="n">
-        <v>227.22</v>
+        <v>653.88</v>
       </c>
       <c r="E35" t="n">
-        <v>15.848</v>
+        <v>20.22</v>
       </c>
     </row>
     <row r="36">
@@ -1112,17 +1112,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>227.22</v>
+        <v>325.46</v>
       </c>
       <c r="D36" t="n">
-        <v>275.54</v>
+        <v>397.66</v>
       </c>
       <c r="E36" t="n">
-        <v>12.656</v>
+        <v>6.624</v>
       </c>
     </row>
     <row r="37">
@@ -1131,112 +1131,112 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>419.52</v>
+        <v>281.54</v>
       </c>
       <c r="D37" t="n">
-        <v>497.06</v>
+        <v>317.06</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>12.484</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>497.06</v>
+        <v>221.18</v>
       </c>
       <c r="D38" t="n">
-        <v>550.16</v>
+        <v>282.38</v>
       </c>
       <c r="E38" t="n">
-        <v>27.84</v>
+        <v>14.752</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>275.54</v>
+        <v>235.84</v>
       </c>
       <c r="D39" t="n">
-        <v>335.86</v>
+        <v>279.4</v>
       </c>
       <c r="E39" t="n">
-        <v>9.744</v>
+        <v>12.18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>274.76</v>
+        <v>282.38</v>
       </c>
       <c r="D40" t="n">
-        <v>317.36</v>
+        <v>355.38</v>
       </c>
       <c r="E40" t="n">
-        <v>10.924</v>
+        <v>10.072</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>550.16</v>
+        <v>279.4</v>
       </c>
       <c r="D41" t="n">
-        <v>614.72</v>
+        <v>345.36</v>
       </c>
       <c r="E41" t="n">
-        <v>24.984</v>
+        <v>8.204000000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>447.06</v>
+        <v>408.66</v>
       </c>
       <c r="D42" t="n">
-        <v>511</v>
+        <v>461.56</v>
       </c>
       <c r="E42" t="n">
-        <v>2.9</v>
+        <v>5.704</v>
       </c>
     </row>
     <row r="43">
@@ -1245,55 +1245,55 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>335.86</v>
+        <v>397.66</v>
       </c>
       <c r="D43" t="n">
-        <v>389.72</v>
+        <v>449.22</v>
       </c>
       <c r="E43" t="n">
-        <v>6.468</v>
+        <v>3.608</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>346.9</v>
+        <v>355.38</v>
       </c>
       <c r="D44" t="n">
-        <v>406.3</v>
+        <v>408.08</v>
       </c>
       <c r="E44" t="n">
-        <v>6.6</v>
+        <v>6.432</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>511</v>
+        <v>317.06</v>
       </c>
       <c r="D45" t="n">
-        <v>601.6</v>
+        <v>393.78</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>8.932</v>
       </c>
     </row>
     <row r="46">
@@ -1302,150 +1302,150 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>601.6</v>
+        <v>408.08</v>
       </c>
       <c r="D46" t="n">
-        <v>655</v>
+        <v>468.46</v>
       </c>
       <c r="E46" t="n">
-        <v>26.34</v>
+        <v>3.484</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>389.72</v>
+        <v>461.56</v>
       </c>
       <c r="D47" t="n">
-        <v>474.42</v>
+        <v>493.66</v>
       </c>
       <c r="E47" t="n">
-        <v>3.088</v>
+        <v>3.624</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>360.34</v>
+        <v>449.22</v>
       </c>
       <c r="D48" t="n">
-        <v>397.54</v>
+        <v>513.92</v>
       </c>
       <c r="E48" t="n">
-        <v>7.176</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>406.3</v>
+        <v>513.92</v>
       </c>
       <c r="D49" t="n">
-        <v>456.2</v>
+        <v>584.42</v>
       </c>
       <c r="E49" t="n">
-        <v>3.24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>397.54</v>
+        <v>345.36</v>
       </c>
       <c r="D50" t="n">
-        <v>489.52</v>
+        <v>384.4</v>
       </c>
       <c r="E50" t="n">
-        <v>3.068</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>317.36</v>
+        <v>584.42</v>
       </c>
       <c r="D51" t="n">
-        <v>387.54</v>
+        <v>638.04</v>
       </c>
       <c r="E51" t="n">
-        <v>7.516</v>
+        <v>26.808</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>474.42</v>
+        <v>384.4</v>
       </c>
       <c r="D52" t="n">
-        <v>569.54</v>
+        <v>441.68</v>
       </c>
       <c r="E52" t="n">
-        <v>30</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>569.54</v>
+        <v>441.68</v>
       </c>
       <c r="D53" t="n">
-        <v>628.8200000000001</v>
+        <v>516.8200000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>26.752</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
@@ -1454,98 +1454,98 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>628.8200000000001</v>
+        <v>638.04</v>
       </c>
       <c r="D54" t="n">
-        <v>697.0599999999999</v>
+        <v>688.26</v>
       </c>
       <c r="E54" t="n">
-        <v>24.048</v>
+        <v>23.896</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>387.54</v>
+        <v>468.46</v>
       </c>
       <c r="D55" t="n">
-        <v>443.94</v>
+        <v>513.36</v>
       </c>
       <c r="E55" t="n">
-        <v>3.996</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>456.2</v>
+        <v>513.36</v>
       </c>
       <c r="D56" t="n">
-        <v>512.46</v>
+        <v>609.51</v>
       </c>
       <c r="E56" t="n">
-        <v>0.224</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>512.46</v>
+        <v>393.78</v>
       </c>
       <c r="D57" t="n">
-        <v>593.71</v>
+        <v>430.98</v>
       </c>
       <c r="E57" t="n">
-        <v>30</v>
+        <v>5.852</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>614.72</v>
+        <v>493.66</v>
       </c>
       <c r="D58" t="n">
-        <v>688.08</v>
+        <v>541.26</v>
       </c>
       <c r="E58" t="n">
-        <v>22.248</v>
+        <v>1.464</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>489.52</v>
+        <v>541.26</v>
       </c>
       <c r="D59" t="n">
-        <v>560.1799999999999</v>
+        <v>629.83</v>
       </c>
       <c r="E59" t="n">
         <v>30</v>
@@ -1564,59 +1564,40 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>560.1799999999999</v>
+        <v>609.51</v>
       </c>
       <c r="D60" t="n">
-        <v>631.4</v>
+        <v>644.59</v>
       </c>
       <c r="E60" t="n">
-        <v>26.048</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>443.94</v>
+        <v>629.83</v>
       </c>
       <c r="D61" t="n">
-        <v>492.3</v>
+        <v>677.61</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>6</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>depot1</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>492.3</v>
-      </c>
-      <c r="D62" t="n">
-        <v>598.2</v>
-      </c>
-      <c r="E62" t="n">
-        <v>30</v>
+        <v>26.412</v>
       </c>
     </row>
   </sheetData>
